--- a/database-whr17-v9.xlsx
+++ b/database-whr17-v9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dorian\rprog\AppliedEconometrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D4D0FA-DC72-49DD-B2C8-76140B61F6EA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11AA319-1C4A-40DD-8508-9A0E6BDE6F60}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="123">
   <si>
     <t>Country</t>
   </si>
@@ -390,24 +390,6 @@
   <si>
     <t>Zimbabwe</t>
   </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>East</t>
-  </si>
-  <si>
-    <t>Mid.East</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>GDP</t>
-  </si>
 </sst>
 </file>
 
@@ -759,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U568"/>
+  <dimension ref="A1:M568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +752,7 @@
     <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,26 +792,8 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>125</v>
-      </c>
-      <c r="T1" t="s">
-        <v>126</v>
-      </c>
-      <c r="U1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -869,35 +833,8 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
-        <v>127</v>
-      </c>
-      <c r="P2">
-        <f>AVERAGEIFS($C$2:$C$568,H$2:H$568,1)</f>
-        <v>6.6228070175438596</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" ref="Q2:U2" si="0">AVERAGEIFS($C$2:$C$568,I$2:I$568,1)</f>
-        <v>5.2913907284768209</v>
-      </c>
-      <c r="R2">
-        <f t="shared" si="0"/>
-        <v>4.45</v>
-      </c>
-      <c r="S2">
-        <f t="shared" si="0"/>
-        <v>5.625</v>
-      </c>
-      <c r="T2">
-        <f t="shared" si="0"/>
-        <v>5.3804347826086953</v>
-      </c>
-      <c r="U2">
-        <f t="shared" si="0"/>
-        <v>6.1575342465753424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -937,35 +874,8 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="O3" t="s">
-        <v>128</v>
-      </c>
-      <c r="P3">
-        <f>AVERAGEIFS($D$2:$D$568,H$2:H$568,1)</f>
-        <v>10.574736511498166</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:U3" si="1">AVERAGEIFS($D$2:$D$568,I$2:I$568,1)</f>
-        <v>9.6623022761565966</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="1"/>
-        <v>7.9625533819198608</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="1"/>
-        <v>9.4314099748929348</v>
-      </c>
-      <c r="T3">
-        <f t="shared" si="1"/>
-        <v>9.1822519717009179</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="1"/>
-        <v>9.3652971966625884</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1005,35 +915,8 @@
       <c r="M4">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <f>AVERAGEIFS($E$2:$E$568,H$2:H$568,1)</f>
-        <v>0.31909648705096061</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:U4" si="2">AVERAGEIFS($E$2:$E$568,I$2:I$568,1)</f>
-        <v>0.31816403973509944</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="2"/>
-        <v>0.41839479166666671</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="2"/>
-        <v>0.3674504861111112</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="2"/>
-        <v>0.33946141606280184</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="2"/>
-        <v>0.4795534089179464</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1073,35 +956,8 @@
       <c r="M5">
         <v>1</v>
       </c>
-      <c r="O5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <f>AVERAGEIFS($F$2:$F$568,H$2:H$568,1)</f>
-        <v>8.0479236842105237</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ref="Q5:U5" si="3">AVERAGEIFS($F$2:$F$568,I$2:I$568,1)</f>
-        <v>5.7752675496688752</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="3"/>
-        <v>1.7138899999999999</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="3"/>
-        <v>4.7862916666666662</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="3"/>
-        <v>5.4535402173913043</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="3"/>
-        <v>3.4533191780821904</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1141,35 +997,8 @@
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="O6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6">
-        <f>AVERAGEIFS($G$2:$G$568,H$2:H$568,1)</f>
-        <v>1.6261228070175442</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ref="Q6:U6" si="4">AVERAGEIFS($G$2:$G$568,I$2:I$568,1)</f>
-        <v>1.5048211920529797</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="4"/>
-        <v>4.7962000000000007</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="4"/>
-        <v>2.992624999999999</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="4"/>
-        <v>2.3221956521739133</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="4"/>
-        <v>2.4128972602739727</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1210,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1251,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1374,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1415,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1456,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1497,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1538,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
